--- a/Git Hub エビデンス.xlsx
+++ b/Git Hub エビデンス.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ikuma_data\Downloads\采野\Git Hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB8448D-3B3C-4961-B205-3B55C3962758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="11565"/>
+    <workbookView xWindow="3195" yWindow="405" windowWidth="24255" windowHeight="14955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プッシュ手順" sheetId="1" r:id="rId1"/>
     <sheet name="管理除外手順" sheetId="3" r:id="rId2"/>
     <sheet name="config system" sheetId="2" r:id="rId3"/>
+    <sheet name="pull" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プッシュ手順!$A$1:$C$642</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="505">
   <si>
     <t>i-uneno@UPK-UNENO MINGW64 ~</t>
   </si>
@@ -1589,11 +1591,50 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ikuma@indy01 MINGW64 /g/github/menta (main)</t>
+  </si>
+  <si>
+    <t>$ git pull origin main</t>
+  </si>
+  <si>
+    <t>From https://github.com/indy-papa/MENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * branch            main       -&gt; FETCH_HEAD</t>
+  </si>
+  <si>
+    <t>error: The following untracked working tree files would be overwritten by merge:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        課題 縦横断システム/40 DB設計書.xlsx</t>
+  </si>
+  <si>
+    <t>Please move or remove them before you merge.</t>
+  </si>
+  <si>
+    <t>Aborting</t>
+  </si>
+  <si>
+    <t>Merge with strategy ort failed.</t>
+  </si>
+  <si>
+    <t>warning: Cannot merge binary files: 課題 縦横断システム/30 画面設計書.xlsx (HEAD vs. 0a250550caf919f4307e8390276df2c212f8ade0)</t>
+  </si>
+  <si>
+    <t>Auto-merging 課題 縦横断システム/30 画面設計書.xlsx</t>
+  </si>
+  <si>
+    <t>CONFLICT (content): Merge conflict in 課題 縦横断システム/30 画面設計書.xlsx</t>
+  </si>
+  <si>
+    <t>Automatic merge failed; fix conflicts and then commit the result.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1677,6 +1718,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1687,16 +1737,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,11 +2033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D642"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
@@ -2497,7 +2538,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="7" t="s">
         <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2508,7 +2549,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="7"/>
       <c r="C63" t="s">
         <v>81</v>
       </c>
@@ -2530,7 +2571,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="8" t="s">
         <v>480</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2541,7 +2582,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
@@ -2642,7 +2683,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="8" t="s">
         <v>481</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2653,13 +2694,13 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="5"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>482</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2670,7 +2711,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
@@ -2679,7 +2720,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6"/>
+      <c r="B85" s="9"/>
       <c r="C85" t="s">
         <v>85</v>
       </c>
@@ -2688,7 +2729,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="6"/>
+      <c r="B86" s="9"/>
       <c r="C86" t="s">
         <v>86</v>
       </c>
@@ -2697,7 +2738,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="6"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
@@ -2777,10 +2818,10 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D98" t="s">
@@ -2791,7 +2832,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>96</v>
       </c>
@@ -2800,7 +2841,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C100" t="s">
@@ -2811,7 +2852,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="10"/>
       <c r="C101" t="s">
         <v>98</v>
       </c>
@@ -2820,7 +2861,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="10"/>
       <c r="C102" t="s">
         <v>99</v>
       </c>
@@ -2829,7 +2870,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="4"/>
       <c r="C103" t="s">
         <v>100</v>
       </c>
@@ -2838,7 +2879,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="4"/>
       <c r="C104" t="s">
         <v>101</v>
       </c>
@@ -2847,7 +2888,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="4"/>
       <c r="C105" t="s">
         <v>102</v>
       </c>
@@ -5749,7 +5790,7 @@
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="6" t="s">
         <v>485</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -5760,7 +5801,7 @@
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="9"/>
+      <c r="B469" s="6"/>
       <c r="C469" t="s">
         <v>463</v>
       </c>
@@ -5859,7 +5900,7 @@
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="6" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5867,7 +5908,7 @@
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="9"/>
+      <c r="B483" s="6"/>
       <c r="C483" t="s">
         <v>487</v>
       </c>
@@ -6661,7 +6702,7 @@
     <row r="641" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="642" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:C642">
+  <autoFilter ref="A1:C642" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>
@@ -6683,7 +6724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C638"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6721,7 +6762,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>491</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6732,7 +6773,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>489</v>
       </c>
@@ -9911,7 +9952,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C642"/>
+  <autoFilter ref="A1:C642" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
@@ -9922,7 +9963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10135,4 +10176,105 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50161D9D-AA06-4B12-8B83-33B48CB585FF}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>